--- a/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
+++ b/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">

--- a/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
+++ b/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>1.047</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -823,7 +823,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.047</t>
+          <t>0.1240</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.1240</t>
+          <t>27.30000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -891,7 +891,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>600</v>
       </c>
@@ -909,15 +913,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>41261.47916666666</v>
+        <v>41403.59722222222</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27.30000</t>
+          <t>0.1390</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,7 +932,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -936,7 +940,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.050</t>
+          <t>6.880</t>
         </is>
       </c>
     </row>
@@ -948,7 +952,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -956,7 +960,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.1390</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -967,7 +971,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -987,7 +991,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -995,7 +999,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.02400</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1004,11 +1008,7 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>600</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.02400</t>
+          <t>9678</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1043,9 +1043,13 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1061,7 +1065,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1069,7 +1073,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9678</t>
+          <t>9.750</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1080,11 +1084,11 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1100,7 +1104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1108,7 +1112,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.750</t>
+          <t>6.880</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1119,7 +1123,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1139,7 +1143,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1147,7 +1151,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.880</t>
+          <t>0.2855</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1158,7 +1162,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1178,7 +1182,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1186,7 +1190,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.2855</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1217,7 +1221,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1225,7 +1229,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.4349</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1233,14 +1237,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>g/m3-N</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1256,7 +1264,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1264,7 +1272,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.6920</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1272,18 +1280,10 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>0.06100</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.6920</t>
+          <t>48.10000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1351,7 +1351,11 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H24" t="n">
         <v>600</v>
       </c>
@@ -1369,15 +1373,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>41403.59722222222</v>
+        <v>41765.42708333334</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06100</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1386,13 +1390,17 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>600</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.880</t>
+          <t>7.390</t>
         </is>
       </c>
     </row>
@@ -1404,15 +1412,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>41403.59722222222</v>
+        <v>41765.42708333334</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.10000</t>
+          <t>0.01500</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1421,17 +1429,13 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>600</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6.880</t>
+          <t>7.390</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1447,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1451,7 +1455,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>8330</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1462,7 +1466,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1482,7 +1486,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1490,7 +1494,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.01500</t>
+          <t>9.210</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1499,7 +1503,11 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H28" t="n">
         <v>600</v>
       </c>
@@ -1517,7 +1525,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1525,7 +1533,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8330</t>
+          <t>7.390</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1536,7 +1544,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1556,7 +1564,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1564,7 +1572,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9.210</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1575,7 +1583,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1595,7 +1603,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1603,7 +1611,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.390</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1614,7 +1622,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1634,7 +1642,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1642,7 +1650,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1650,14 +1658,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>g/m3-N</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1673,7 +1685,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1681,7 +1693,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.3030</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1690,11 +1702,7 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>600</v>
       </c>
@@ -1712,7 +1720,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1720,7 +1728,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.1040</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1728,18 +1736,10 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>31.60000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1772,7 +1772,11 @@
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H35" t="n">
         <v>600</v>
       </c>
@@ -1790,15 +1794,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>41765.42708333334</v>
+        <v>42177.57847222222</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.3030</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1807,13 +1811,17 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H36" t="n">
         <v>600</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>7.390</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>
@@ -1825,15 +1833,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>41765.42708333334</v>
+        <v>42177.57847222222</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.1040</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1848,7 +1856,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>7.390</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>
@@ -1860,15 +1868,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>41765.42708333334</v>
+        <v>42177.57847222222</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>31.60000</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1879,7 +1887,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1887,7 +1895,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>7.390</t>
+          <t>6.620</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1907,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1907,7 +1915,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>10.230</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1938,7 +1946,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1946,7 +1954,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.01000</t>
+          <t>6.620</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1955,7 +1963,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H40" t="n">
         <v>600</v>
       </c>
@@ -1973,7 +1985,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1981,7 +1993,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>8.1000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1992,7 +2004,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2012,7 +2024,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2020,7 +2032,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.230</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2031,7 +2043,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2051,7 +2063,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2059,7 +2071,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>8.1150</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2067,14 +2079,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2090,7 +2106,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2098,7 +2114,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8.1000</t>
+          <t>8.630</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2107,11 +2123,7 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>600</v>
       </c>
@@ -2129,7 +2141,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2137,7 +2149,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.01600</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2146,11 +2158,7 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>600</v>
       </c>
@@ -2168,7 +2176,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2176,7 +2184,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.115</t>
+          <t>0.63000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2184,18 +2192,14 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2211,15 +2215,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>42177.57847222222</v>
+        <v>42192.47569444445</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2228,13 +2232,17 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H47" t="n">
         <v>600</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>7.690</t>
         </is>
       </c>
     </row>
@@ -2246,15 +2254,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>42177.57847222222</v>
+        <v>42192.47569444445</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.630</t>
+          <t>0.420</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2263,13 +2271,17 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H48" t="n">
         <v>600</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>7.690</t>
         </is>
       </c>
     </row>
@@ -2281,15 +2293,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>42177.57847222222</v>
+        <v>42192.47569444445</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.01600</t>
+          <t>0.008000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2304,7 +2316,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>7.690</t>
         </is>
       </c>
     </row>
@@ -2316,15 +2328,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>42177.57847222222</v>
+        <v>42192.47569444445</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.63000</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2335,7 +2347,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2343,7 +2355,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6.620</t>
+          <t>7.690</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2367,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2363,7 +2375,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>10.790</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2394,7 +2406,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2402,7 +2414,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.420</t>
+          <t>7.690</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2413,7 +2425,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2433,7 +2445,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2441,7 +2453,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.008000</t>
+          <t>0.3260</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2450,7 +2462,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H53" t="n">
         <v>600</v>
       </c>
@@ -2468,7 +2484,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2476,7 +2492,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2487,7 +2503,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2507,7 +2523,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2515,7 +2531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.790</t>
+          <t>0.3350</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2523,14 +2539,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2546,7 +2566,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2554,7 +2574,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>0.6600</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2563,11 +2583,7 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>600</v>
       </c>
@@ -2585,7 +2601,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2593,7 +2609,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3260</t>
+          <t>0.08700</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2602,11 +2618,7 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
         <v>600</v>
       </c>
@@ -2624,7 +2636,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2632,7 +2644,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>37.60000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2643,7 +2655,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2663,15 +2675,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>42192.47569444445</v>
+        <v>42250.45833333334</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.335</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2679,22 +2691,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.380</t>
         </is>
       </c>
     </row>
@@ -2706,15 +2714,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>42192.47569444445</v>
+        <v>42250.45833333334</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>0.005000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2729,7 +2737,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.380</t>
         </is>
       </c>
     </row>
@@ -2741,15 +2749,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>42192.47569444445</v>
+        <v>42250.45833333334</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.6600</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2758,13 +2766,17 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>600</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.380</t>
         </is>
       </c>
     </row>
@@ -2776,15 +2788,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>42192.47569444445</v>
+        <v>42250.45833333334</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.08700</t>
+          <t>10.820</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2793,13 +2805,17 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>600</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.380</t>
         </is>
       </c>
     </row>
@@ -2811,15 +2827,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>42192.47569444445</v>
+        <v>42250.45833333334</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>37.60000</t>
+          <t>7.380</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2830,7 +2846,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2838,7 +2854,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.380</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2866,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2858,7 +2874,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2869,7 +2885,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2889,7 +2905,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2897,7 +2913,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.005000</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2906,7 +2922,11 @@
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H65" t="n">
         <v>600</v>
       </c>
@@ -2924,7 +2944,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2932,7 +2952,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0.0550</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2940,14 +2960,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2963,7 +2987,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2971,7 +2995,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.820</t>
+          <t>0.3900</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2980,11 +3004,7 @@
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
         <v>600</v>
       </c>
@@ -3002,7 +3022,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3010,7 +3030,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>0.08300</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3019,11 +3039,7 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>600</v>
       </c>
@@ -3041,7 +3057,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3049,7 +3065,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>33.10000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3060,7 +3076,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3080,15 +3096,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3099,7 +3115,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3107,7 +3123,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3135,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.02500</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3135,22 +3151,14 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3162,15 +3170,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3179,13 +3187,17 @@
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H72" t="n">
         <v>600</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3197,15 +3209,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.3900</t>
+          <t>10.030</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3214,13 +3226,17 @@
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H73" t="n">
         <v>600</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3232,15 +3248,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.08300</t>
+          <t>7.100</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3249,13 +3265,17 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H74" t="n">
         <v>600</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3267,15 +3287,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>42250.45833333334</v>
+        <v>42285.44097222222</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>33.10000</t>
+          <t>0.1170</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3286,7 +3306,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3294,7 +3314,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>7.380</t>
+          <t>7.100</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3326,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3314,7 +3334,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3325,7 +3345,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3345,7 +3365,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3353,7 +3373,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.02500</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3361,10 +3381,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H77" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3380,7 +3408,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3388,7 +3416,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>0.9700</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3397,11 +3425,7 @@
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>600</v>
       </c>
@@ -3419,7 +3443,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3427,7 +3451,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10.030</t>
+          <t>0.1980</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3436,11 +3460,7 @@
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>600</v>
       </c>
@@ -3458,7 +3478,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3466,7 +3486,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>45.80000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3477,7 +3497,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3497,15 +3517,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.1170</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3516,7 +3536,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3524,7 +3544,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3536,15 +3556,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.270</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3552,10 +3572,14 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3563,7 +3587,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3575,15 +3599,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.200</t>
+          <t>0.02400</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3591,22 +3615,14 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3618,15 +3634,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3635,13 +3651,17 @@
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H84" t="n">
         <v>600</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3653,15 +3673,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.9700</t>
+          <t>8.670</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3670,13 +3690,17 @@
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H85" t="n">
         <v>600</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3688,15 +3712,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.1980</t>
+          <t>7.270</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3705,13 +3729,17 @@
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H86" t="n">
         <v>600</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3723,15 +3751,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>42285.44097222222</v>
+        <v>42339.43402777778</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>45.80000</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3742,7 +3770,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3750,7 +3778,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>7.100</t>
+          <t>7.270</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3790,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3770,7 +3798,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3781,7 +3809,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3801,7 +3829,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3809,7 +3837,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.1200</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3819,16 +3847,16 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3844,7 +3872,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3852,7 +3880,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.02400</t>
+          <t>1.340</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3879,7 +3907,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3887,7 +3915,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>0.09700</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3896,11 +3924,7 @@
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>600</v>
       </c>
@@ -3918,7 +3942,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3926,7 +3950,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>8.670</t>
+          <t>18.30000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3937,7 +3961,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3957,15 +3981,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3976,7 +4000,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3984,7 +4008,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -3996,15 +4020,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4015,7 +4039,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4023,7 +4047,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4035,15 +4059,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.01700</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4052,17 +4076,13 @@
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>600</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4074,15 +4094,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4090,22 +4110,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4117,15 +4133,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>9.660</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4134,13 +4150,17 @@
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H97" t="n">
         <v>600</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4152,15 +4172,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.340</t>
+          <t>8.210</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4169,13 +4189,17 @@
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H98" t="n">
         <v>600</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4187,15 +4211,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.09700</t>
+          <t>0.2040</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4204,13 +4228,17 @@
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H99" t="n">
         <v>600</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4222,15 +4250,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>42339.43402777778</v>
+        <v>42649.43402777778</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>18.30000</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4241,7 +4269,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4249,7 +4277,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>7.270</t>
+          <t>8.210</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4289,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4269,7 +4297,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.2400</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4277,14 +4305,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -4300,7 +4332,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4308,7 +4340,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4317,11 +4349,7 @@
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
         <v>600</v>
       </c>
@@ -4339,7 +4367,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4347,7 +4375,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.01700</t>
+          <t>0.1370</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4374,7 +4402,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4382,7 +4410,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>64.40000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4393,7 +4421,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4413,15 +4441,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9.660</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4440,7 +4468,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4452,15 +4480,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4468,10 +4496,14 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -4479,7 +4511,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4491,15 +4523,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.2040</t>
+          <t>0.04200</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4508,17 +4540,13 @@
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
         <v>600</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4530,15 +4558,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4549,7 +4577,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4557,7 +4585,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4569,15 +4597,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>9.170</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4585,22 +4613,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4612,15 +4636,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>6.830</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4629,13 +4653,17 @@
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H110" t="n">
         <v>600</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4647,15 +4675,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.6800</t>
+          <t>0.5640</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4664,13 +4692,17 @@
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H111" t="n">
         <v>600</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4682,15 +4714,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.1370</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4699,13 +4731,17 @@
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H112" t="n">
         <v>600</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4717,15 +4753,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>42649.43402777778</v>
+        <v>42684.47916666666</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>64.40000</t>
+          <t>0.6000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4733,18 +4769,22 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>6.830</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4764,7 +4804,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>1.160</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4773,11 +4813,7 @@
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
         <v>600</v>
       </c>
@@ -4795,7 +4831,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4803,7 +4839,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.2720</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4811,16 +4847,8 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>600</v>
       </c>
@@ -4838,7 +4866,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4846,7 +4874,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.04200</t>
+          <t>168.00000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4855,7 +4883,11 @@
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H116" t="n">
         <v>600</v>
       </c>
@@ -4873,15 +4905,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4892,7 +4924,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -4900,7 +4932,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -4912,15 +4944,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>9.170</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4931,7 +4963,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -4939,7 +4971,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -4951,15 +4983,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4968,17 +5000,13 @@
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>600</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -4990,15 +5018,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.5640</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5009,7 +5037,7 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -5017,7 +5045,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5029,15 +5057,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>8.770</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5048,7 +5076,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -5056,7 +5084,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5068,15 +5096,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.600</t>
+          <t>6.890</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5084,22 +5112,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5111,15 +5135,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5128,13 +5152,17 @@
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H123" t="n">
         <v>600</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5146,15 +5174,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.160</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5163,13 +5191,17 @@
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H124" t="n">
         <v>600</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5181,15 +5213,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.2720</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5197,14 +5229,22 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5216,15 +5256,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>42684.47916666666</v>
+        <v>42773.41666666666</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>168.00000</t>
+          <t>0.3800</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5233,17 +5273,13 @@
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
         <v>600</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>6.830</t>
+          <t>6.890</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5291,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5263,7 +5299,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.08000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5272,11 +5308,7 @@
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
         <v>600</v>
       </c>
@@ -5294,7 +5326,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5302,7 +5334,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>13.60000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5313,7 +5345,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -5333,15 +5365,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5350,13 +5382,17 @@
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H129" t="n">
         <v>600</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5368,15 +5404,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5385,17 +5421,13 @@
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
         <v>600</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5407,15 +5439,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>8.770</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5426,7 +5458,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -5434,7 +5466,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5446,15 +5478,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>9.510</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5465,7 +5497,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -5473,7 +5505,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5485,15 +5517,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>7.040</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5504,7 +5536,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -5512,7 +5544,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5524,15 +5556,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5551,7 +5583,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5563,15 +5595,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5579,22 +5611,18 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>g/m3-N</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5606,15 +5634,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5622,14 +5650,22 @@
           <t>SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H136" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5645,11 +5681,11 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.8700</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5664,7 +5700,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5680,11 +5716,11 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.08000</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5699,7 +5735,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5715,11 +5751,11 @@
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>42773.41666666666</v>
+        <v>42831.44513888889</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>13.60000</t>
+          <t>48.90000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5738,7 +5774,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>6.890</t>
+          <t>7.040</t>
         </is>
       </c>
     </row>
@@ -5754,19 +5790,23 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -5777,7 +5817,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5789,30 +5829,38 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H141" t="n">
         <v>600</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5824,34 +5872,34 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>0.02300</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
         <v>600</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5863,26 +5911,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>9.510</t>
+          <t>&gt;9700</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -5890,7 +5942,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5902,26 +5954,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>10.290</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -5929,7 +5981,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5941,26 +5993,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>7.090</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -5968,7 +6020,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -5980,23 +6032,27 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.2120</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G146" t="inlineStr">
         <is>
           <t>g/m3-N</t>
@@ -6007,7 +6063,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6019,25 +6075,25 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6046,11 +6102,11 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6062,30 +6118,38 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>68.00</t>
+          <t>0.2900</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H148" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6101,26 +6165,30 @@
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.8700</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
         <v>600</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6136,26 +6204,30 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.1700</t>
+          <t>0.2690</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
         <v>600</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6171,19 +6243,23 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>42831.44513888889</v>
+        <v>42985.47222222222</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>48.90000</t>
+          <t>132.00000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
+          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr">
         <is>
           <t>NTU</t>
@@ -6194,7 +6270,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>7.040</t>
+          <t>7.090</t>
         </is>
       </c>
     </row>
@@ -6210,11 +6286,11 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>&lt;0.0100</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6237,7 +6313,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6253,11 +6329,11 @@
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.217</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6280,7 +6356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6296,11 +6372,11 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.02300</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6319,7 +6395,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6411,7 @@
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -6362,7 +6438,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6378,11 +6454,11 @@
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10.290</t>
+          <t>10.210</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6401,7 +6477,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6417,11 +6493,11 @@
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6440,7 +6516,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6456,11 +6532,11 @@
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.2120</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6483,7 +6559,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6499,11 +6575,11 @@
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6526,7 +6602,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6542,11 +6618,11 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.290</t>
+          <t>0.0950</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6569,7 +6645,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6581,15 +6657,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>0.3600</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6599,7 +6675,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -6608,7 +6684,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6620,15 +6696,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>0.06000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6638,7 +6714,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
+          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -6647,7 +6723,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6659,15 +6735,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43201.46527777778</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.2690</t>
+          <t>20.90000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6677,16 +6753,20 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H163" t="n">
         <v>600</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -6698,15 +6778,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>42985.47222222222</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>132.00000</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6716,12 +6796,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -6729,7 +6809,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6741,15 +6821,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>&lt;0.0100</t>
+          <t>1.450</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6757,14 +6837,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500 NH3 H.</t>
-        </is>
-      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -6772,7 +6848,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6784,15 +6860,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.217</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6802,20 +6878,16 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
         <v>600</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6827,15 +6899,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6845,16 +6917,20 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G.</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H167" t="n">
         <v>600</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6866,15 +6942,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>&gt;9700</t>
+          <t>9.950</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6882,14 +6958,10 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -6897,7 +6969,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6909,15 +6981,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>10.210</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6928,7 +7000,7 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -6936,7 +7008,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6948,15 +7020,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.4500</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6964,10 +7036,14 @@
           <t>Science - State of Environment, SOE Reporting - Rivers</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -6975,7 +7051,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -6987,15 +7063,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7018,7 +7094,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -7030,15 +7106,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>6.4690</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7048,7 +7124,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7057,11 +7133,11 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -7073,15 +7149,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>6.270</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7091,20 +7167,16 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -7116,15 +7188,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>0.01600</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7134,7 +7206,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -7143,7 +7215,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -7155,15 +7227,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>43704.48958333334</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.3600</t>
+          <t>0.76000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7173,16 +7245,20 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-NO3 I. Persulphate digestion follows APHA</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H175" t="n">
         <v>600</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.250</t>
         </is>
       </c>
     </row>
@@ -7194,34 +7270,38 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>44544.46875</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.06000</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA 21st Edition Method 4500-P G. Persulphate digestion follows APHA 21</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H176" t="n">
         <v>600</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7233,30 +7313,30 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>43201.46527777778</v>
+        <v>44544.46875</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>20.90000</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -7264,7 +7344,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>7.320</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7276,38 +7356,34 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
         <v>600</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7319,26 +7395,30 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1.450</t>
+          <t>&gt;9680</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -7346,7 +7426,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7358,34 +7438,34 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>8.560</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H180" t="n">
         <v>600</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7397,30 +7477,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>6.180</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -7428,7 +7504,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7440,26 +7516,30 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>9.950</t>
+          <t>0.3070</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -7467,7 +7547,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7479,26 +7559,30 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -7506,7 +7590,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7518,25 +7602,25 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>6.4500</t>
+          <t>0.3310</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7545,11 +7629,11 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7561,38 +7645,34 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.5700</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>600</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7604,38 +7684,34 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>6.469</t>
+          <t>0.06900</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7647,34 +7723,38 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44544.46875</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>13.30000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H187" t="n">
         <v>600</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>6.180</t>
         </is>
       </c>
     </row>
@@ -7686,34 +7766,38 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.270</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H188" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7725,34 +7809,38 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.01600</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H189" t="n">
         <v>600</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7764,38 +7852,34 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>43704.48958333334</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.76000</t>
+          <t>0.03000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Science - State of Environment, SOE Reporting - Rivers</t>
+          <t>Science - State of Environment</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
         <v>600</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>6.250</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7807,15 +7891,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>944</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7825,12 +7909,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -7838,7 +7922,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7850,15 +7934,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>9.280</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7866,14 +7950,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -7881,7 +7961,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7893,15 +7973,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7909,18 +7989,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H193" t="n">
         <v>600</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7932,15 +8012,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>&gt;9680</t>
+          <t>0.2050</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7950,12 +8030,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -7963,7 +8043,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -7975,15 +8055,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>8.560</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7991,10 +8071,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -8002,7 +8086,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -8014,15 +8098,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>0.2230</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8030,18 +8114,22 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -8053,15 +8141,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.3070</t>
+          <t>0.4100</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8071,20 +8159,16 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
         <v>600</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -8096,15 +8180,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8114,20 +8198,16 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
         <v>600</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -8139,15 +8219,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44697.48611111111</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.331</t>
+          <t>58.00000</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8157,20 +8237,20 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.250</t>
         </is>
       </c>
     </row>
@@ -8182,15 +8262,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44762.46875</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8200,16 +8280,20 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H200" t="n">
         <v>600</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8221,15 +8305,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44762.46875</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.5700</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8239,16 +8323,20 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H201" t="n">
         <v>600</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8260,15 +8348,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44762.46875</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.06900</t>
+          <t>0.01200</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8278,7 +8366,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -8287,7 +8375,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8299,15 +8387,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>44544.46875</v>
+        <v>44762.46875</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>13.30000</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8317,12 +8405,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -8330,7 +8418,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>6.180</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8342,15 +8430,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>10.340</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8358,11 +8446,7 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -8373,7 +8457,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8385,15 +8469,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8401,14 +8485,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -8416,7 +8496,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8428,15 +8508,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.03000</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8446,16 +8526,20 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H206" t="n">
         <v>600</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8467,15 +8551,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8485,12 +8569,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H207" t="n">
@@ -8498,7 +8582,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8510,15 +8594,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>9.280</t>
+          <t>0.1470</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8526,18 +8610,22 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8549,15 +8637,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>1.550</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8565,18 +8653,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
         <v>600</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8588,15 +8676,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.2050</t>
+          <t>0.4050</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8606,20 +8694,16 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
         <v>600</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8631,15 +8715,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44762.46875</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>83.80000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8649,12 +8733,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -8662,7 +8746,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.000</t>
         </is>
       </c>
     </row>
@@ -8674,15 +8758,15 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44792.50763888889</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.223</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8692,20 +8776,20 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
@@ -8717,15 +8801,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44792.50763888889</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8735,16 +8819,20 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H213" t="n">
         <v>600</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
@@ -8756,15 +8844,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44792.50763888889</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.4100</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8774,7 +8862,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -8783,7 +8871,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
@@ -8795,15 +8883,15 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
-        <v>44697.48611111111</v>
+        <v>44792.50763888889</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8813,16 +8901,20 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H215" t="n">
         <v>600</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>7.250</t>
+          <t>7.170</t>
         </is>
       </c>
     </row>
@@ -8834,38 +8926,323 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>9.680</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>600</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>600</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>600</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>600</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>300</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>600</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>600</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>7.170</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Makomako Road Drain at L Horowhenua</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>Turbidity</t>
         </is>
       </c>
-      <c r="C216" s="2" t="n">
-        <v>44697.48611111111</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>58.00000</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="C223" s="2" t="n">
+        <v>44792.50763888889</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>41.60000</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
         <is>
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>NTU</t>
         </is>
       </c>
-      <c r="H216" t="n">
-        <v>600</v>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>7.250</t>
+      <c r="H223" t="n">
+        <v>600</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>7.170</t>
         </is>
       </c>
     </row>

--- a/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
+++ b/data/Rivers/MakomakoRoadDrainatLHorowhenua_de56c7e922.xlsx
@@ -85,7 +85,7 @@
     <t>0.02400</t>
   </si>
   <si>
-    <t>9678</t>
+    <t>9678.0</t>
   </si>
   <si>
     <t>6.790</t>
@@ -148,7 +148,7 @@
     <t>0.01500</t>
   </si>
   <si>
-    <t>8330</t>
+    <t>8330.0</t>
   </si>
   <si>
     <t>9.210</t>
@@ -181,7 +181,7 @@
     <t>0.01000</t>
   </si>
   <si>
-    <t>80</t>
+    <t>80.0</t>
   </si>
   <si>
     <t>10.230</t>
@@ -214,7 +214,7 @@
     <t>0.008000</t>
   </si>
   <si>
-    <t>2700</t>
+    <t>2700.0</t>
   </si>
   <si>
     <t>10.790</t>
@@ -244,7 +244,7 @@
     <t>0.005000</t>
   </si>
   <si>
-    <t>2500</t>
+    <t>2500.0</t>
   </si>
   <si>
     <t>10.820</t>
@@ -277,7 +277,7 @@
     <t>0.02500</t>
   </si>
   <si>
-    <t>&gt;9700</t>
+    <t>&gt;9700.0</t>
   </si>
   <si>
     <t>10.030</t>
@@ -424,7 +424,7 @@
     <t>0.01300</t>
   </si>
   <si>
-    <t>9700</t>
+    <t>9700.0</t>
   </si>
   <si>
     <t>9.510</t>
@@ -511,7 +511,7 @@
     <t>1.450</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>9.950</t>
@@ -535,7 +535,7 @@
     <t>0.0210</t>
   </si>
   <si>
-    <t>&gt;9680</t>
+    <t>&gt;9680.0</t>
   </si>
   <si>
     <t>8.560</t>
@@ -568,7 +568,7 @@
     <t>0.03000</t>
   </si>
   <si>
-    <t>944</t>
+    <t>944.0</t>
   </si>
   <si>
     <t>9.280</t>
@@ -601,7 +601,7 @@
     <t>0.01200</t>
   </si>
   <si>
-    <t>5199</t>
+    <t>5198.8</t>
   </si>
   <si>
     <t>10.340</t>
@@ -628,7 +628,7 @@
     <t>0.090</t>
   </si>
   <si>
-    <t>3080</t>
+    <t>3080.4</t>
   </si>
   <si>
     <t>9.680</t>
